--- a/data/common/Reception_Perception_Rookies.xlsx
+++ b/data/common/Reception_Perception_Rookies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{7BA15C0B-EFF0-4E59-B702-89E2371692A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113983D4-468B-458B-8560-E7F9801AF592}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{7BA15C0B-EFF0-4E59-B702-89E2371692A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B26462C-CB72-42CF-A37D-A38E605CF4EE}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="320" windowWidth="18560" windowHeight="13790" xr2:uid="{CF82EDE9-4597-4981-98B9-E15CE2DB7798}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{CF82EDE9-4597-4981-98B9-E15CE2DB7798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>Player</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Straight-line X-receiver who flashes the beginnings of solid route-running. Volatile profile.</t>
   </si>
   <si>
-    <t>Don't mind him on Day 2 because he beats man but needs refinement and has hands issues.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great hands but struggles to separate vs. man. Much like Coleman, I prefer a power slot future.	</t>
   </si>
   <si>
@@ -393,21 +390,86 @@
     <t xml:space="preserve">Awesome RAC player with flashes of man coverage ability. Work ethic concerns but high upside.	</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe he tops out as a great No. 2 but that's fine. Power slot who can handle outside duties.	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vertical receiver with some excellent grabs in contested situations. Really nice zone routes.	</t>
   </si>
   <si>
     <t xml:space="preserve">Fantastic three-level separator. Elite vs. man, zone, press. Rare catching ability. Will he play WR?	</t>
+  </si>
+  <si>
+    <t>Cooper Kupp, Puka Nacua</t>
+  </si>
+  <si>
+    <t>Early Career Brandin Cooks, Tyreek Hill</t>
+  </si>
+  <si>
+    <t>Double Success Rate</t>
+  </si>
+  <si>
+    <t>Tyrell Williams</t>
+  </si>
+  <si>
+    <t>Phillip Dorsett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalen Royals out of Utah State brings both production and fascinating traits to the table as a prospect. Royals amassed over 1,900 receiving yards and a whopping 21 touchdowns in 20 games over the last two seasons before an injury cut his 2024 campaign short. He measured in at 6 ‘0 and 205 pounds and ripped off a 4.42 40-yard dash with a 93rd percentile 10-yard split, per MockDraftable. Royals can move, and you see that speed on tape. However, Reception Perception also shows the clear areas he needs to develop before being fully unleashed as a pro. 
+Success Rate by Route
+Route Percentage
+Success Rate vs. Coverage
+Coverage Type	% of Routes	Success Rate	Percentile
+Man	49.4%	68.9%	46th
+Zone	50.6%	74.4%	20th
+Press	12.6%	64.5%	35th
+Double	8.5%	66.7%	-
+Royals’ deployment in Utah State’s offense was extremely simple. He lined up on the line of scrimmage on 87.8% of his sampled snaps and took 84.6% at the left outside position. There was just one snap in the sample where he was the right outside receiver, one in the backfield and he took just 14.9% in the slot.
+That puts Royals squarely in the red flag zone of prospects who have only lined up on one side of the field in their Reception Perception sample. This stands out from a guy like Jack Bech, whose profile hit the site last week and while he lined up as the right outside receiver on the vast majority of his snaps in 2024, he had played other roles in prior campaigns. This has been the menu for Royals’ entire career.
+History tells us that guys from that list who become pure perimeter receivers are risky bets with low ceilings if they even become useful players; the Josh Reynolds, Cedric Tillman, and Dyami Brown group from that list. Royals was the nominal X-receiver for Utah State but I’m skeptical that’s his future as a pro. 
+One name that stands out from the list that was a hit in the “move around” category of receivers was Rashee Rice. Interestingly enough, Royals received a Rice comparison JJ Zacharison in his excellent prospect guide and both players are about the same size (Rice is 6 ‘0 and 204 pounds) with tantalizing athletic testing. They both have that identical 1.49, 93rd percentile 10-yard split. Just like Royals, Rice was a one-side-of-field X-receiver for SMU in his Reception Perception prospect profile who ran a limited route tree. In the pros with Kansas City, he’s played a role that’s almost the exact opposite of his collegiate deployment as a slot-heavy YAC threat. Perhaps I’m reaching here but maybe a team has a similar vision with Royals. He’ll need some sort of role catering to hide his flaws and accentuate his strengths if he’s going to play early. 
+As hinted at above, Royals ran a pretty stripped-down route tree with Utah State. An outrageous 53.8% of his sampled routes were a curl or slant. The only other patterns he ran at an above average rate were the screen or dig. We got very few routes breaking to the outside and not all that much work down the field.
+My biggest area of concern for Royals right now is the 74.6% success rate vs. zone coverage, which is far less than ideal. I don’t expect an A+ success rate vs. zone as a boundary receiver who just hitched back into collegiate zone coverage on countless curl routes. However, I do think he needs to develop a better feel for sifting through it, even when working over the middle. 
+That said, his 68.9% success rate vs. man coverage is a solid mark, although you’d love to see a lower-level player obliterate that competition. I thought there were times when Royals’ speed was just overwhelming when working man coverage on go routes and you see some brief flashes of him being able to snap off defenders in his hip pocket to break free on digs and crossers. He certainly needs to hone his craft as a technician and consistency as a route runner but I just want to note that the base traits to develop are present. 
+Another reason the Rice comparison from JJ stood out to me was because I like Royals’ work after the catch much more than his ball skills in tight coverage. 
+Royals’ 6.0% drop rate is a little on the higher side and his 61.5% contested catch rate is slightly below the prospect average. Contact at the catch point and even within his route or at the line of scrimmage (64.5% success rate vs. press) gave him issues. 
+When you can get him into the open field and away from contact, Royals can make plays. He was “in space” on 58% of his sampled catches and went down on first contact on 48.3%. He broke multiple tackles on 17.2% of those plays and when he gets a head of steam rolling, he can defeat angles and power through arm tackles. The speed and power combination will sneak up on you. 
+Overall, Jalen Royals is a developmental wide receiver prospect with some flashes against man coverage. His speed does translate to the football field and there are some skills that, if properly honed, can be extremely useful to an NFL passing game. It’s just going to take the right, and perhaps a hyper-specific role in getting those to shine early on in his career, given his microscopic collegiate deployment and long-term development to expand his game. It’s worth noting he’s still pretty new to playing the wide receiver position, so some of this need for development isn’t surprising nor does it need to be a big negative.
+I’m not out on Royals as a sleeper prospect in this draft class but I generally prefer to target players with this type of profile in the early fourth-round of the NFL Draft. His landing spot, and both the vision and teaching capabilities of his next coaching staff, regardless of how high he’s drafted, will ultimately determine his fate as a pro. </t>
+  </si>
+  <si>
+    <t>Rashee Rice</t>
+  </si>
+  <si>
+    <t>Hunter Renfrow, Julian Edelman, Wes Welker, Cole Beasely</t>
+  </si>
+  <si>
+    <t>Isaiah Bond is a wide receiver prospect who transferred from Alabama to Texas, bringing considerable hype primarily due to his elite speed. However, his final college season was marred by injuries and inconsistent production, ultimately seeing him lose the WR1 role. More significantly, Bond carries major off-field character concerns, including turning himself in regarding an outstanding warrant for sexual assault, adding a massive risk factor to his profile.   
+Despite these red flags, his on-field athletic gifts are undeniable. Reception Perception data highlights his blazing speed and ability to separate, particularly against man coverage and on deep vertical routes. Hes also a dynamic threat after the catch. However, he shows significant weaknesses against zone coverage and press, struggles on comeback routes, and isnt yet a polished, complete receiver. His profile suggests a player who could be a potent weapon in specific roles but may struggle as a primary, every-down option early in his career.
+Strengths:
+Elite Speed &amp; Vertical Threat: Bond possesses game-changing speed (can absolutely fly). He excels on deep routes like nines (69.2% success rate), posts, and digs, capable of taking the top off a defense. This translates to big-play potential, a valuable asset in any fantasy format.   
+Man Coverage Beater: He shows a strong ability to defeat man coverage (69.1% success rate), especially off-man, using his speed and savvy route running on vertical stems.
+Run After Catch (RAC) Ability: Bond is dangerous with the ball in his hands. He was frequently in space (58.3% of catches) and demonstrated excellent tackle-breaking ability (broke multiple tackles on 21.4% of those plays, only down on first contact 35.7%). This boosts his yardage potential on shorter and intermediate catches, adding value in half-PPR formats.   
+Reliable Hands: Hes noted as a consistent catcher with clean technique and had no drops in the sampled games. This is crucial for PPR formats where receptions are key.
+Weaknesses:
+Zone Coverage Struggles: His success rate vs. zone (75.0%, 24th percentile) is poor. He struggles to throttle down and find soft spots, particularly on routes working back to the QB (e.g., curls - 59.1% success rate). This could limit his effectiveness against common NFL defensive schemes and cap his target volume.
+Press Coverage Issues: Bond had difficulty against press coverage (57.7% success rate, 23rd percentile), struggling with contact at the line and showing uninspiring releases. This might pigeonhole him into specific alignments (slot/motion) or limit his snaps early on.
+Incomplete Route Runner: While dangerous deep, he needs refinement on quicker routes (like slants) and comeback patterns. Hes not yet a well-rounded receiver capable of winning consistently across the entire route tree.
+Major Character Concerns: The outstanding warrant for sexual assault is a massive red flag that carries significant risk (suspension, team avoidance, etc.) and cannot be ignored from a fantasy perspective. This severely lowers his floor.   
+Injury History: Missed time in his final season, adding durability concerns.   
+Veteran Comparison:
+Early-Career Brandin Cooks: This is the primary comparison offered. Like Cooks early on, Bond possesses elite speed and excels as a vertical threat but may have limitations in other areas of his game (contested catches, physicality, perhaps initial route tree limitations). Cooks developed over time, but Bond starts with a similar speed-based profile.   
+(Functional Comp) Tyreek Hill (Specific Route): While not a direct overall comparison, Bond showed the rare speed and ability to execute full-speed dig routes off motion, similar to how Miami uses Hill. This highlights his potential explosiveness in creative offensive schemes.
+Fantasy Football Outlook (Half-PPR):
+Bond presents a classic high-risk, high-reward profile, heavily skewed towards risk due to the off-field issues.
+Upside: His speed and RAC ability offer tremendous big-play potential. In the right scheme that utilizes motion and targets him vertically or gets him the ball in space, he could produce splash weeks with long touchdowns and significant YAC. His good hands are a plus for securing receptions.   
+Downside: The character concerns could derail his career before it starts or lead to lengthy absences. On the field, his struggles vs. zone and press could limit his snaps and targets, making him a potentially volatile, boom-or-bust fantasy asset rather than a consistent volume receiver ideal for PPR formats. He might be role-dependent early in his career.
+Draft Strategy: Given the red flags and profile limitations, hes likely a late-round rookie pick in dynasty drafts at best, and potentially someone to avoid entirely depending on risk tolerance and how the legal situation unfolds. His NFL draft capital will be telling; a significant slide would confirm team concerns. In redraft, hes likely waiver wire fodder initially unless he lands in an ideal spot with a clear path to manufactured touches.
+Overall, the talent (especially speed) is intriguing, but the combination of on-field limitations (zone/press struggles) and severe off-field risks makes Isaiah Bond a highly speculative fantasy prospect for 2025 and beyond.</t>
   </si>
   <si>
     <t>Based on this analysis, Jack Bech profiles as a highly intriguing rookie wide receiver prospect, particularly for PPR formats. The analyst is clearly very high on him, viewing him as a potential early Day 2 pick and a top-7 receiver in this draft class. His collegiate journey is notable, having led a stacked 2021 LSU WR room (featuring Nabers, Thomas Jr., Boutte, Palmer) in receptions before transferring and excelling at TCU.
 Half-Point PPR Relevance:
-Bech's skillset appears tailor-made for PPR leagues. His strengths lie in areas that generate receptions and bonus yards after the catch:
+Bechs skillset appears tailor-made for PPR leagues. His strengths lie in areas that generate receptions and bonus yards after the catch:
 High Reception Potential: Elite separation skills in the short-to-intermediate areas, coupled with exceptional hands (0 drops in sample) and contested catch ability, suggest he could become a reliable target earner.
-YAC Upside: His phenomenal ability to break tackles (avoided first contact on 85% of 'in space' plays, broke multiple tackles on 35%) means he can turn shorter, high-percentage catches into significant gains, boosting his yardage totals beyond the reception points.
-Likely Role: Projecting as a "big slot" receiver often translates to consistent targets, making him a potential volume play in fantasy.
+YAC Upside: His phenomenal ability to break tackles (avoided first contact on 85% of in space plays, broke multiple tackles on 35%) means he can turn shorter, high-percentage catches into significant gains, boosting his yardage totals beyond the reception points.
+Likely Role: Projecting as a big slot receiver often translates to consistent targets, making him a potential volume play in fantasy.
 Strengths:
 Route Running &amp; Separation: Stunning ability to separate, particularly on short/intermediate routes. Technically sound footwork and agility. Elite success rates vs. press (79.4%, 91st percentile) and strong vs. man (74.5%, 85th percentile) and zone (80.8%). Outstanding on out-breaking routes (100% success on flats, comebacks, outs).
 Hands &amp; Contested Catches: Considered among the best hands in the class. Did not drop a pass in the sample. Exceptional contested catch rate (85.7%) with good technique (high-pointing, late hands, positioning). Uses his size (214 lbs) effectively.
@@ -415,15 +477,115 @@
 Versatility (Potential): Played primarily outside at TCU but has extensive slot experience from earlier in college. Likely best maximized as a power slot receiver who can also play outside in certain formations.
 Weaknesses:
 Lack of Long Speed: Did not run a 40-yard dash and profile suggests he lacks top-end speed. Poor success rates on deep routes (nines, corners). Not a vertical field stretcher. This likely limits his ceiling as a pure outside X-receiver in the NFL.
-College Alignment: Played predominantly on one side of the field (right outside) in his final season (72.4% of snaps). This is noted as a potential "red flag" trend for some prospects, though successful players have overcome it by moving around the formation in the NFL (which Bech has shown potential to do).
+College Alignment: Played predominantly on one side of the field (right outside) in his final season (72.4% of snaps). This is noted as a potential red flag trend for some prospects, though successful players have overcome it by moving around the formation in the NFL (which Bech has shown potential to do).
 Veteran Comparisons:
 Cooper Kupp / Puka Nacua: Comparisons drawn due to his reliable hands, precision on intermediate routes, and strong run-after-catch ability.
 Keenan Allen: Seen as a strong comparison due to similar size, route-running prowess, catching ability, and a comparable lack of elite timed speed (Allen ran a 4.71). The analyst notes Bech is likely more physical after the catch and as a blocker, while Allen is smoother.
 Overall Takeaway:
-Jack Bech appears to be a technically refined, reliable receiver with exceptional hands and YAC ability. While he lacks the long speed to be a consistent deep threat, his mastery of short and intermediate routes and toughness after the catch make him a high-floor prospect with significant upside, especially in half-PPR fantasy formats where receptions and yards after the catch are highly valuable. His profile suggests a potential immediate contributor, likely from the slot, who could become a quarterback's best friend and a consistent fantasy producer.</t>
-  </si>
-  <si>
-    <t>Cooper Kupp, Puka Nacua</t>
+Jack Bech appears to be a technically refined, reliable receiver with exceptional hands and YAC ability. While he lacks the long speed to be a consistent deep threat, his mastery of short and intermediate routes and toughness after the catch make him a high-floor prospect with significant upside, especially in half-PPR fantasy formats where receptions and yards after the catch are highly valuable. His profile suggests a potential immediate contributor, likely from the slot, who could become a quarterbacks best friend and a consistent fantasy producer.</t>
+  </si>
+  <si>
+    <t>Tory Horton is an intriguing wide receiver prospect out of Colorado State, heading towards the 2025 NFL Draft. 1  Standing tall and lean (6-foot-3, 196 lbs), he posted significant production in 2022 and 2023 before injuries hampered and ultimately ended his 2024 season early. This injury likely contributes to him being potentially overlooked (out of sight, out of mind). However, Reception Perception data paints a picture of a highly skilled receiver with Day 2 NFL Draft talent. He demonstrates proficiency against all coverage types, excels on key routes, and possesses strong hands, though questions about his injury history and a peculiar college deployment pattern remain.   
+ 1. 
+NFL Draft a peak of a lifelong dream for college players - Spectrum News
+spectrumnews1.com
+Strengths:
+Technical Route Runner &amp; Separation: Horton shows strong technical skills and savvy, allowing him to win consistently. He excels against man (72.2% success rate, 71st percentile) and zone (81.4%, 62nd percentile), settling into openings effectively. His route running is described as great.
+Dominant vs. Press Coverage: His standout trait might be his ability to defeat press coverage (82.1% success rate, 94th percentile) using a detailed release package and quick feet. This is a crucial indicator for translating successfully from a lower level of competition.
+Intermediate &amp; Quick Game Prowess: Horton thrived on slants (elite 87.9% success rate on high volume) and intermediate in-breakers (digs, posts). This suggests he can be a reliable target earner, crucial for PPR formats. He also showed well on out-breaking routes.
+Reliable Hands &amp; Contested Catch Ability: Despite one bad game inflating his drop rate slightly (5.7%), Horton generally attacks the ball well, extends naturally, and wins outside his frame. His excellent contested catch rate (72.7%) makes him a trustworthy target in tight windows and potentially near the end zone.
+Versatility Potential: While primarily an outside receiver at CSU, he showed skills from the slot (20.7% snaps) and appears capable of playing all three WR positions (X, flanker, slot) at the next level.
+Volume Potential: Commanded a massive target share (38.5% TPRR) in the sampled games, indicating he can be the focal point of an offense when healthy.
+Weaknesses:
+Injury History: Nagging injuries followed by a season-ending injury in 2024 are a significant concern for his durability and availability at the next level. This is a major fantasy risk factor.
+One-Sided Alignment: Playing almost exclusively on the right side (77.4% snaps) is flagged as a potential concern. Historically, players with such heavily skewed college alignments have sometimes struggled to become high-volume NFL receivers.
+Limited Vertical Dominance: Didnt excel on pure go-routes (nines) or corners, and lacked salesmanship on vertical stems, potentially limiting his role as a consistent deep threat or full-time X-receiver.
+Average RAC Power: While he can run away from defenders with long strides once in the open, he isnt a tackle-breaking machine (down on first contact 52.6% in space) due partly to his leaner frame. He relies more on separation than power after the catch.
+Veteran Comparison:
+Tyrell Williams (The Gazelle): This comparison specifically highlights Hortons gliding, long-striding running style with the ball when he gets into open space. It speaks more to his movement type than his overall playing style or production ceiling.
+Fantasy Football Outlook (Half-PPR - for 2025):
+Tory Horton profiles as a potentially very solid, perhaps undervalued, wide receiver prospect heading into the 2025 draft cycle.
+Upside: His ability to separate via route running, beat press coverage, and win contested catches provides a strong foundation for earning targets and receptions in the NFL. This skill set translates well to half-PPR formats where reliable volume and catch security are valuable. His versatility could help him get on the field early. If the injury concerns prove overblown, he could emerge as a dependable WR2/3 for fantasy teams.
+Downside: The injury history is the biggest red flag and could significantly impact his draft stock and early career availability. The alignment concern needs monitoring, as it could potentially limit his usage patterns or ceiling. He might be more of a high-volume possession type than a consistent big-play generator via YAC or deep bombs.
+Draft Strategy: Horton is shaping up to be a potential steal if his 2024 injury pushes him into Day 3 of the 2025 NFL Draft, but his Reception Perception profile suggests Day 2 talent. In 2025 dynasty rookie drafts, he could be an excellent target in the mid-to-late second or early third round, depending on draft capital and landing spot. He offers a potentially safer floor than pure athletic specimens if he stays healthy due to his technical refinement.
+Overall, keep a close eye on Tory Hortons recovery and pre-draft process in the coming year. If healthy, his well-rounded receiving skills make him an appealing prospect for fantasy, particularly in formats rewarding receptions like half-PPR.</t>
+  </si>
+  <si>
+    <t>Xavier Restrepo, a highly productive slot receiver from Miami, enters the 2025 draft process known as Cam Wards go-to target. His stock took a hit after a concerning 4.85 40-yard dash at his pro day, though he cited a hamstring issue. Regardless, Reception Perception confirms his profile: a quintessential, slot-only receiver whose value lies in reliability and short-area work, not athleticism. He projects as a likely Day 3 pick with a defined but limited NFL role.
+Strengths (Fantasy Relevant):
+Elite Hands: Boasts a stellar 1.4% drop rate. Extremely reliable catcher, which is gold in PPR formats.
+Short-Area Savvy: Excels on key slot routes like slants (82.1% success) and flats (86.7%). Shows an excellent feel for finding space underneath against zone.
+QB Friendly: Outstanding in scramble situations, consistently working back to the QB or finding open space.
+Route Nuance: Shows effectiveness on corner routes from the slot (86.4% success), offering occasional big-play potential breaking outside.
+Scrappy &amp; Tough: Solid contested catch rate (68.8%) and plays physically despite size limitations.
+Weaknesses (Fantasy Relevant):
+Athletic Limitations: Poor testing speed (even accounting for injury) and limited length confirm he lacks the traits to win consistently outside or vertically.
+Slot-Locked: Almost exclusively a slot player (88.4% snaps) who struggles mightily against press coverage (52.0% success).
+Limited YAC: Not a dynamic tackle-breaker; primarily secures the catch rather than creating significant yards after.
+Vertical Deficiencies: Struggles badly on vertical routes (nines, posts), limiting his big-play upside downfield.
+Fading Archetype: The pure popgun slot role is less prioritized in the modern NFL, potentially impacting his draft capital and long-term outlook.
+Veteran Comparisons:
+Restrepo draws comparisons to savvy, reliable slot receivers known more for their craftiness and hands than elite athleticism. Common names mentioned include:
+Hunter Renfrow / Julian Edelman / Wes Welker / Cole Beasley: This group represents the core archetype – high-volume, chain-moving slot receivers who excel with quickness, route nuance, and dependable hands underneath.
+Jarvis Landry: Highlights his toughness and willingness to work over the middle.
+Khalil Shakir / Sterling Shepard: Similar slot profiles focused on awareness and reliability, though both likely possess slightly better athletic metrics than Restrepo showed.
+Cedrick Wilson Jr. / Braxton Berrios: Suggests a potential outcome as a useful depth slot or gadget player.
+Fantasy Outlook (Half-PPR - for 2025):
+Restrepo profiles as a high-floor, low-ceiling fantasy asset. His value comes from potential reception volume in a dedicated slot role.
+Upside: In the right offense, his reliable hands and short-area separation could make him a dependable target vacuum, offering bye-week or flex appeal in PPR formats.
+Downside: Athletic limitations severely cap his ceiling. He offers minimal YAC or big-play ability and is entirely scheme/role-dependent.
+Hes a late-round dynasty pick best suited for teams needing immediate slot depth. Dont expect league-winning upside, but he could carve out a niche as a reliable possession receiver for several years if he lands in a favorable system.</t>
+  </si>
+  <si>
+    <t>Tai Felton, a wide receiver from Maryland, enters the 2025 draft pool after a highly productive senior year (96 catches). He possesses a lanky frame (61, 183 lbs) but brings verified deep speed, evidenced by his 4.37 40-yard dash at the combine. Reception Perception highlights Felton as a potentially effective player in specific roles but also reveals significant limitations that make him a tricky projection and likely Day 3 NFL Draft pick. His profile suggests a player whose speed is best utilized underneath rather than vertically.   
+Strengths (Fantasy Relevant):
+Blazing Speed: His 4.37 speed is a legitimate weapon that shows up on film, particularly in the open field.   
+Quick Game Proficiency: Felton excels on short routes like slants, flats, and curls. He gets into these routes quickly and shows precision, making him a potential asset for generating receptions, which is valuable in half-PPR formats.
+Run After Catch (RAC) Ability: Felton is dangerous with the ball in his hands and room to run. He showed tackle-breaking ability (broke at least one tackle on 50% of in space attempts) and effectively maximizes manufactured touches like screens. This adds yardage potential to short catches.
+Solid Zone Awareness: He posted a respectable success rate versus zone coverage (80.2%) and showed a good feel for uncovering against it.
+Weaknesses (Fantasy Relevant):
+Press Coverage Struggles: Felton performed poorly against press (52.2% success rate, 18th percentile). His lack of size and strength makes it difficult for him to disengage from physical corners, likely limiting him primarily to off-ball alignments (slot/flanker) in the pros.
+Mediocre vs. Man Coverage: His success rate against man coverage (63.2%, 22nd percentile) wasnt strong, further suggesting hell need scheme help (motion, bunch formations) to get free consistently.
+Contested Catch Deficiencies: This is a major concern. His 54.5% contested catch rate is poor. He often lets the ball into his body and struggles to attack or secure it strongly in tight coverage.
+Hands/Drops: Related to the contested catch issues, he logged six drops in his sample. Reliability at the catch point could be a persistent problem, negatively impacting his fantasy value, especially in PPR formats.
+Limited Downfield Impact: Despite his speed, his struggles in contested situations likely prevent him from being a consistent vertical threat downfield against tight coverage.
+Fantasy Outlook (Half-PPR - for 2025):
+Felton projects as a complementary offensive piece rather than a primary target earner. His likely NFL role is a speed flanker or slot receiver who thrives on schemed touches – screens, jet sweeps, quick routes – designed to get him the ball in space.
+In half-PPR leagues, his potential for quick receptions and RAC yards holds some appeal. However, his significant struggles against press coverage and at the catch point (contested catches, drops) severely cap his ceiling and weekly consistency. He needs a specific offensive system to maximize his strengths and hide his weaknesses.
+As a projected Day 3 pick, Felton is a late-round flyer in 2025 dynasty rookie drafts. He requires development and likely wont offer immediate fantasy relevance. His profile suggests more potential value in best-ball formats, where a long catch-and-run touchdown can provide spike weeks, rather than traditional leagues requiring steady production. Landing spot and coaching will be crucial for him to carve out a niche role.</t>
+  </si>
+  <si>
+    <t>Tutu Atwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe he tops out as a great No. 2 but thats fine. Power slot who can handle outside duties.	</t>
+  </si>
+  <si>
+    <t>Dont mind him on Day 2 because he beats man but needs refinement and has hands issues.</t>
+  </si>
+  <si>
+    <t>Tez Johnson comes off two productive seasons at Oregon, notably connecting well with Bo Nix in 2023. However, he enters the 2025 draft process as an extreme physical outlier at 5-foot-10 and a mere 154 pounds. While he showed proficiency in college, Reception Perception reveals significant limitations that are exacerbated by his size. His projection is heavily restricted to a niche role, making him a highly risky fantasy prospect despite college production.   
+Strengths (Fantasy Relevant):
+Zone Coverage Savvy: Johnson demonstrated a good feel for finding soft spots against zone coverage (79.3% success rate), particularly on in-breaking routes like slants. This is his clearest path to NFL targets.
+Reliable Hands: The profile credits him with good hands, suggesting reliability when targeted (though specific data isnt provided here).
+College Production: Put up strong numbers, especially in 2023, indicating he can function effectively within a specific offensive structure.
+Weaknesses (Fantasy Relevant):
+Extreme Size Outlier: His 154-pound frame is historically small and presents major durability concerns and functional limitations against NFL physicality.   
+Poor vs. Man/Press: Showed very little ability to separate against man coverage (58.2% success, 14th percentile) or beat press (44.4%, 8th percentile). Needs heavy protection and scheming.
+Minimal YAC Ability: Despite presumed quickness, he offers almost no value after the catch, going down on first contact a staggering 73.7% of the time in space. This severely hurts his fantasy upside.
+Limited Athleticism: The profile notes his lack of size shows up negatively on film, and implies lackluster long speed (unsurprising combine 40 time mentioned).
+Restricted Role: Projects strictly as a slot receiver effective only against zone coverage on underneath routes, an archetype less valued for high volume in todays NFL.
+Veteran Comparisons:
+Finding accurate comparisons for such an extreme size outlier is difficult.
+Tank Dell (Contrast): While often mentioned due to size, the profile emphasizes Johnson lacks the key separation skills vs. man and press coverage that made Dell a more viable outlier prospect coming out. Dell is not a good skill comparison based on this data.
+Tutu Atwell: This comparison appears in external reports. Like Johnson, Atwell is extremely undersized and needed development/specific usage. However, Atwell relies more heavily on pure speed, which Johnsons profile questions.
+Aspirational Comps (mentioned by Johnson/others): Names like Cooper Kupp, Tyler Lockett, or Ladd McConkey are sometimes mentioned but seem unrealistic given Johnsons athletic limitations and Reception Perception profile.
+Ultimately, Johnsons profile is unique due to the extreme size, making reliable comparisons scarce.
+Fantasy Outlook (Half-PPR - for 2025):
+Johnson is a long-shot fantasy prospect. His path to relevance is incredibly narrow, requiring a perfect scheme fit that heavily utilizes a pure zone-beating slot receiver and can completely protect him from physical coverage.
+Upside: Minimal. His best-case scenario is likely becoming a low-volume, reception-dependent player useful only in very deep PPR leagues, contingent on finding that ideal niche role.
+Downside: Extremely high. His size makes him a major injury risk, and his inability to beat man/press coverage or create YAC likely keeps him off the field or limits him to a handful of targets per game even if active.
+As a likely late Day 3 pick or UDFA, Johnson should be avoided in most dynasty rookie drafts. He lacks the necessary tools to overcome his unprecedented physical limitations for consistent fantasy production.</t>
   </si>
 </sst>
 </file>
@@ -804,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70176A1-B136-4145-B48A-7863F0F59492}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +987,7 @@
     <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +1039,11 @@
       <c r="Q1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -898,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>57.2</v>
@@ -931,7 +1096,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -951,7 +1116,7 @@
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>30.7</v>
@@ -984,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>44.8</v>
@@ -1037,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1222,7 @@
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>43.4</v>
@@ -1090,7 +1255,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1110,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>44.5</v>
@@ -1143,7 +1308,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1361,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1213,10 +1378,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>59.9</v>
@@ -1249,15 +1414,54 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>39.5</v>
+      </c>
+      <c r="I9">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>60.5</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>15.1</v>
+      </c>
+      <c r="O9">
+        <v>57.7</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>3.5</v>
+      </c>
+      <c r="R9">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1274,10 +1478,10 @@
         <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>58.4</v>
@@ -1310,7 +1514,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1534,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>47.4</v>
@@ -1363,15 +1567,54 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>49.4</v>
+      </c>
+      <c r="I12">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>50.6</v>
+      </c>
+      <c r="L12">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>12.6</v>
+      </c>
+      <c r="O12">
+        <v>64.5</v>
+      </c>
+      <c r="P12">
+        <v>35</v>
+      </c>
+      <c r="Q12">
+        <v>8.5</v>
+      </c>
+      <c r="R12">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1379,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>53</v>
@@ -1415,23 +1658,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>47.8</v>
+      </c>
+      <c r="I14">
+        <v>72.2</v>
+      </c>
+      <c r="J14">
+        <v>71</v>
+      </c>
+      <c r="K14">
+        <v>52.2</v>
+      </c>
+      <c r="L14">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M14">
+        <v>62</v>
+      </c>
+      <c r="N14">
+        <v>12.4</v>
+      </c>
+      <c r="O14">
+        <v>82.1</v>
+      </c>
+      <c r="P14">
+        <v>94</v>
+      </c>
+      <c r="Q14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15">
+        <v>45.8</v>
+      </c>
+      <c r="I15">
+        <v>65.2</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>54.2</v>
+      </c>
+      <c r="L15">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="M15">
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>8.5</v>
+      </c>
+      <c r="O15">
+        <v>52</v>
+      </c>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1447,23 +1768,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18">
+        <v>42.1</v>
+      </c>
+      <c r="I18">
+        <v>58.2</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>57.9</v>
+      </c>
+      <c r="L18">
+        <v>79.3</v>
+      </c>
+      <c r="M18">
+        <v>54</v>
+      </c>
+      <c r="N18">
+        <v>5.7</v>
+      </c>
+      <c r="O18">
+        <v>44.4</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>1.9</v>
+      </c>
+      <c r="R18">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I19">
+        <v>63.2</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>60.8</v>
+      </c>
+      <c r="L19">
+        <v>80.2</v>
+      </c>
+      <c r="M19">
+        <v>59</v>
+      </c>
+      <c r="N19">
+        <v>739</v>
+      </c>
+      <c r="O19">
+        <v>52.2</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>2.1</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1479,10 +1878,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N27" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="N31" s="1"/>
     </row>
     <row r="35" spans="14:14" x14ac:dyDescent="0.35">

--- a/data/common/Reception_Perception_Rookies.xlsx
+++ b/data/common/Reception_Perception_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{7BA15C0B-EFF0-4E59-B702-89E2371692A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B26462C-CB72-42CF-A37D-A38E605CF4EE}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{7BA15C0B-EFF0-4E59-B702-89E2371692A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38FF8ED-14EB-41E3-A325-469F1223F58B}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{CF82EDE9-4597-4981-98B9-E15CE2DB7798}"/>
+    <workbookView xWindow="700" yWindow="12290" windowWidth="20840" windowHeight="15460" xr2:uid="{CF82EDE9-4597-4981-98B9-E15CE2DB7798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Player</t>
   </si>
@@ -586,6 +586,33 @@
 Upside: Minimal. His best-case scenario is likely becoming a low-volume, reception-dependent player useful only in very deep PPR leagues, contingent on finding that ideal niche role.
 Downside: Extremely high. His size makes him a major injury risk, and his inability to beat man/press coverage or create YAC likely keeps him off the field or limits him to a handful of targets per game even if active.
 As a likely late Day 3 pick or UDFA, Johnson should be avoided in most dynasty rookie drafts. He lacks the necessary tools to overcome his unprecedented physical limitations for consistent fantasy production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows flashes of good routes and YAC skills but needs development and early role-catering.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love this guy. Beats man and zone. Dominant underneath. Catches everything, breaks tackles.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressive route runner who projects well as a flanker. Attacks the ball and wins on in-breakers.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can easily see him being a useful popgun slot receiver in the league but limited player.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's ranked this low as a pure wide receiver but I think he can be more useful in a gadget role.	</t>
+  </si>
+  <si>
+    <t>The Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid zone-beater but struggles to win against man coverage given lack of size and speed.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be a 26-year-old rookie but shows some ability to translate into a big slot role.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see him developing into a reliable slot, flanker rotation guy at some point. Has some game.	</t>
   </si>
 </sst>
 </file>
@@ -643,10 +670,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,8 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70176A1-B136-4145-B48A-7863F0F59492}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1580,6 +1604,15 @@
       <c r="D12" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="E12" s="3">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H12">
         <v>49.4</v>
       </c>
@@ -1627,6 +1660,12 @@
       <c r="D13" t="s">
         <v>69</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H13">
         <v>53</v>
       </c>
@@ -1671,6 +1710,15 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
+      <c r="E14" s="3">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H14">
         <v>47.8</v>
       </c>
@@ -1718,6 +1766,15 @@
       <c r="D15" t="s">
         <v>76</v>
       </c>
+      <c r="E15" s="3">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H15">
         <v>45.8</v>
       </c>
@@ -1760,12 +1817,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
@@ -1781,6 +1847,15 @@
       <c r="D18" t="s">
         <v>82</v>
       </c>
+      <c r="E18" s="3">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="H18">
         <v>42.1</v>
       </c>
@@ -1862,20 +1937,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E20" s="3">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
+      </c>
+      <c r="E21">
+        <v>83</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
